--- a/SCH & STH/sch_sth_4_urinefiltration_cca.xlsx
+++ b/SCH & STH/sch_sth_4_urinefiltration_cca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\SCH &amp; STH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\SCH &amp; STH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C08F94E-99E7-4709-A51A-8A534D992F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="17940" yWindow="3135" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -211,30 +212,15 @@
     <t>Recorder ID</t>
   </si>
   <si>
-    <t>u_subdistrict</t>
-  </si>
-  <si>
     <t>u_school_id</t>
   </si>
   <si>
     <t>Enter the school code</t>
   </si>
   <si>
-    <t>u_IDType</t>
-  </si>
-  <si>
-    <t>u_BarcodeID</t>
-  </si>
-  <si>
-    <t>u_generateID</t>
-  </si>
-  <si>
     <t>Enter unique ID from the diagnostic test (must be entered as AB-ABC-12345 upper case only with dashes)</t>
   </si>
   <si>
-    <t>u_generateID2</t>
-  </si>
-  <si>
     <t>u_exam</t>
   </si>
   <si>
@@ -292,12 +278,6 @@
     <t>Entrer le code de l'école</t>
   </si>
   <si>
-    <t>${u_IDType} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>${u_IDType} != 'Scanner'</t>
-  </si>
-  <si>
     <t>Urine Filtration</t>
   </si>
   <si>
@@ -424,9 +404,6 @@
     <t>Urine_Filtration</t>
   </si>
   <si>
-    <t>. = ${u_generateID}</t>
-  </si>
-  <si>
     <t>selected(${u_exam}, 'Urine_Filtration')</t>
   </si>
   <si>
@@ -434,13 +411,37 @@
   </si>
   <si>
     <t>Sélectionnez l'examen utilisé</t>
+  </si>
+  <si>
+    <t>u_district</t>
+  </si>
+  <si>
+    <t>u_id_type</t>
+  </si>
+  <si>
+    <t>${u_id_type} = 'Scanner'</t>
+  </si>
+  <si>
+    <t>${u_id_type} != 'Scanner'</t>
+  </si>
+  <si>
+    <t>u_barcode_id</t>
+  </si>
+  <si>
+    <t>u_generate_id</t>
+  </si>
+  <si>
+    <t>u_generate_id2</t>
+  </si>
+  <si>
+    <t>. = ${u_generate_id}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,6 +491,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,7 +552,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,6 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -925,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1036,8 +1045,8 @@
       <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>60</v>
+      <c r="B3" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>33</v>
@@ -1064,14 +1073,14 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="15"/>
@@ -1097,7 +1106,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>34</v>
@@ -1124,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
@@ -1139,7 +1148,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="19"/>
       <c r="K6" s="8" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
@@ -1153,14 +1162,14 @@
         <v>22</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
@@ -1174,7 +1183,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="8" t="s">
@@ -1188,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>36</v>
@@ -1200,7 +1209,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>51</v>
@@ -1209,7 +1218,7 @@
         <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
@@ -1220,17 +1229,17 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="15"/>
@@ -1250,14 +1259,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="10"/>
@@ -1265,7 +1274,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="19"/>
       <c r="K10" s="25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="8" t="s">
@@ -1276,17 +1285,17 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="10"/>
@@ -1294,7 +1303,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
       <c r="K11" s="25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="8" t="s">
@@ -1305,17 +1314,17 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="10"/>
@@ -1323,7 +1332,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="19"/>
       <c r="K12" s="25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="8" t="s">
@@ -1334,17 +1343,17 @@
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="10"/>
@@ -1352,7 +1361,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
       <c r="K13" s="25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="8" t="s">
@@ -1366,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>37</v>
@@ -1393,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>29</v>
@@ -1418,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>29</v>
@@ -1564,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1624,240 +1633,240 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1882,7 @@
       <c r="D22" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SCH & STH/sch_sth_4_urinefiltration_cca.xlsx
+++ b/SCH & STH/sch_sth_4_urinefiltration_cca.xlsx
@@ -310,9 +310,6 @@
     <t>exameType</t>
   </si>
   <si>
-    <t>select_multiple exameType</t>
-  </si>
-  <si>
     <t>1 Bloody</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>Sélectionnez l'examen utilisé</t>
+  </si>
+  <si>
+    <t>select_one exameType</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>51</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>68</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="15"/>
@@ -1265,7 +1265,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="19"/>
       <c r="K10" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="8" t="s">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>72</v>
@@ -1294,7 +1294,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="19"/>
       <c r="K11" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="8" t="s">
@@ -1305,7 +1305,7 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>74</v>
@@ -1323,7 +1323,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="19"/>
       <c r="K12" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="8" t="s">
@@ -1334,7 +1334,7 @@
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>76</v>
@@ -1352,7 +1352,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
       <c r="K13" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="8" t="s">
@@ -1627,7 +1627,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>89</v>
@@ -1655,13 +1655,13 @@
         <v>72</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,13 +1669,13 @@
         <v>72</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,13 +1683,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,13 +1697,13 @@
         <v>72</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,153 +1711,153 @@
         <v>72</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
